--- a/outputs/RALEIGH4.xlsx
+++ b/outputs/RALEIGH4.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page provides comprehensive information about the project, including an overview, technologies used, and links to further documentation (e.g., Contribute.md, Deploying.md). This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. ABI would consider gathering more information on setting up the environment as a necessary step to achieve the overall use case.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The subgoal of gathering more information on setting up the environment aligns with Abi's motivation to accomplish tasks using technology. Additionally, Abi's comprehensive information processing style means they would likely consider gathering detailed information as a necessary step toward achieving the overall use case of setting up the environment. The page provides various resources and links that could help Abi gather the required information.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page layout is straightforward, with clear headings and sections such as "Technologies used to build," "Deployment process," and "Want to help?" ABI can scroll down the page to find relevant information, aligning with their comprehensive information processing style. Additionally, the motivation to gather more information for setting up the environment will drive ABI to scroll and read through the content.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: Scrolling to find information is a straightforward action that aligns with Abi's comprehensive information processing style. The page is well-organized with clear sections and headings, making it easy for Abi to identify where to find relevant information. This action does not require any unfamiliar computing tasks, and the layout supports Abi's preference for process-oriented learning.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: While the page does provide some information about the project and links to further documentation, it is not immediately clear or comprehensive regarding specific steps for setting up the environment. ABI might feel uncertain if they have found all the necessary information due to the lack of explicit instructions or a step-by-step guide on this particular page. This could affect their confidence and comprehensive understanding, as ABI prefers detailed and structured instructions to ensure they are making progress toward their goal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling might help Abi find some information, the page is quite dense with various sections and links. Abi might not immediately know if they have found all the necessary information for setting up the environment. The page does not provide a clear, consolidated guide or step-by-step instructions specifically for setting up the environment, which Abi would prefer due to their comprehensive information processing style and lower computer self-efficacy. Abi might feel uncertain about whether they have gathered all the required information, leading to a lack of confidence in their progress.</t>
         </is>
       </c>
     </row>

--- a/outputs/RALEIGH4.xlsx
+++ b/outputs/RALEIGH4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before proceeding. The page provides various resources and documentation links (e.g., `README.md`, `contribute.md`, `Deploying.md`) that are relevant to setting up the environment. This aligns with ABI's motivation to complete the task and their information processing style of gathering detailed information.</t>
+Why: The page contains various resources and documentation links such as "Contribute.md" and "Deploying.md" that are relevant to setting up the environment. ABI, who prefers to gather comprehensive information before acting, would likely consider gathering more information from these resources as a necessary step toward achieving the overall use case of setting up the environment.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling to find information aligns with ABI's comprehensive information processing style. The page is well-organized with clear sections and headings, making it easy for ABI to identify where to find relevant information about setting up the environment. The presence of documentation links and detailed descriptions further supports ABI's need to gather comprehensive information.</t>
+Why: The page contains a variety of information and links that are relevant to setting up the environment, such as "Contribute.md" and "Deploying.md." ABI, who prefers to gather comprehensive information before acting, would likely know to scroll down to find more detailed information about setting up the environment. The presence of these links and resources aligns with ABI's information processing style, making it clear that scrolling to find more information is a logical step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling, ABI might find some relevant links and information, but the page contains a lot of different sections and files, which could be overwhelming. ABI might not be confident that they have found all the necessary information for setting up the environment due to the scattered nature of the content. ABI's comprehensive information processing style requires clear and consolidated information, and the current page layout might not provide that assurance. Additionally, ABI's low computer self-efficacy might make them doubt if they have gathered all the required information correctly.</t>
+Why: While scrolling down the page, ABI will find some relevant links and information, such as "Contribute.md" and "Deploying.md." However, the page contains a lot of information, and it might not be immediately clear to ABI which specific resources are most relevant for setting up the environment. Given ABI's preference for comprehensive information and low confidence in unfamiliar computing tasks, the presence of multiple links and sections without clear guidance might overwhelm ABI. This could make it difficult for ABI to feel confident that they are making progress toward their goal and have gathered all the necessary information.</t>
         </is>
       </c>
     </row>

--- a/outputs/RALEIGH4.xlsx
+++ b/outputs/RALEIGH4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains various resources and documentation links such as "Contribute.md" and "Deploying.md" that are relevant to setting up the environment. ABI, who prefers to gather comprehensive information before acting, would likely consider gathering more information from these resources as a necessary step toward achieving the overall use case of setting up the environment.</t>
+Why: The page contains various files and documentation that could provide information on setting up the environment. ABI, who prefers to gather comprehensive information before acting, would likely consider reviewing these resources as a necessary step toward achieving the overall use case of setting up the environment. The presence of files like `README.md`, `contrib.md`, and `production_env_on_local_machine.md` suggests that relevant setup information might be available, aligning with ABI's motivation to accomplish the task and their information processing style.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page contains a variety of information and links that are relevant to setting up the environment, such as "Contribute.md" and "Deploying.md." ABI, who prefers to gather comprehensive information before acting, would likely know to scroll down to find more detailed information about setting up the environment. The presence of these links and resources aligns with ABI's information processing style, making it clear that scrolling to find more information is a logical step.</t>
+Why: The page is structured in a way that provides a list of files and documentation, which ABI can scroll through to find relevant information. Given ABI's comprehensive information processing style, they are likely to scroll down to gather more details. The presence of files like `README.md`, `contrib.md`, and `production_env_on_local_machine.md` suggests that relevant setup information might be available, making it clear to ABI that scrolling to find this information is a logical next step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down the page, ABI will find some relevant links and information, such as "Contribute.md" and "Deploying.md." However, the page contains a lot of information, and it might not be immediately clear to ABI which specific resources are most relevant for setting up the environment. Given ABI's preference for comprehensive information and low confidence in unfamiliar computing tasks, the presence of multiple links and sections without clear guidance might overwhelm ABI. This could make it difficult for ABI to feel confident that they are making progress toward their goal and have gathered all the necessary information.</t>
+Why: While scrolling might reveal some relevant files and documentation, the page does not provide explicit guidance or clear instructions on setting up the environment. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not feel assured that they have gathered all the necessary information. The page lists various files, but without clear indications of which specific files contain the setup instructions, ABI might feel uncertain about their progress and whether they have all the information needed. This lack of explicit guidance and potential for confusion could hinder ABI's confidence and sense of progress.</t>
         </is>
       </c>
     </row>
